--- a/Test Design.xlsx
+++ b/Test Design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Working with others\PC-E-commerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52BB866-BB93-45D7-9C86-49E48881E75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8420BF2-C379-4C88-AA63-1C31FD400E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
   <si>
     <t>Yêu cầu mức 1</t>
   </si>
@@ -268,27 +268,9 @@
     <t>Thêm sản phẩm vào kho</t>
   </si>
   <si>
-    <t>cần cài đặt lại, đáng lẽ thất bại</t>
-  </si>
-  <si>
-    <t>Điền đầy đủ thông tin sản phẩm và có ảnh</t>
-  </si>
-  <si>
-    <t>Có điền đủ thông tin nhưng không có ảnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Không điền thông tin gì </t>
-  </si>
-  <si>
-    <t>Điền chưa đầy đủ cả thông tin và ảnh</t>
-  </si>
-  <si>
     <t>Xoá sản phẩm khỏi kho</t>
   </si>
   <si>
-    <t>Kiểm tra xem sản phẩm khi đã thêm vào kho có thể xoá đi được hay không</t>
-  </si>
-  <si>
     <t>Kiểm tra sản phẩm trước đây thêm vào giỏ có còn hiện trong giỏ nữa không &amp; coi số lượng sản phẩm giảm</t>
   </si>
   <si>
@@ -296,27 +278,6 @@
   </si>
   <si>
     <t>Thêm sản phẩm khi mà có số lượng bằng 0 (hết tồn kho)</t>
-  </si>
-  <si>
-    <t>Thêm danh mục</t>
-  </si>
-  <si>
-    <t>Điền đầy đủ thông tin danh mục</t>
-  </si>
-  <si>
-    <t>Xoá danh mục</t>
-  </si>
-  <si>
-    <t>Thêm danh mục con</t>
-  </si>
-  <si>
-    <t>Xoá danh mục con</t>
-  </si>
-  <si>
-    <t>Kiểm tra xem xoá danh mục con đã thêm được không</t>
-  </si>
-  <si>
-    <t>Kiểm tra xem xoá danh mục đã thêm được không</t>
   </si>
   <si>
     <t>Quản lý kho hàng 
@@ -359,6 +320,12 @@
   </si>
   <si>
     <t>Kiểm tra xem tài khoản của khách hàng có thể được gỡ khỏi danh sách khách hàng hay không</t>
+  </si>
+  <si>
+    <t>Thêm loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Xoá loại sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -535,34 +502,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -575,15 +529,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,103 +543,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="352" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="103" zoomScaleNormal="352" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,936 +931,816 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="E2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="23"/>
+      <c r="E5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="23"/>
+      <c r="E6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="23"/>
+      <c r="E7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="23"/>
+      <c r="E8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="24"/>
+      <c r="E9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="18"/>
+      <c r="E11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="18"/>
+      <c r="E12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="35"/>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="18"/>
+      <c r="E13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="18"/>
+      <c r="E15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="35"/>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="18"/>
+      <c r="E16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="35"/>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="18"/>
+      <c r="E17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="9" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="19"/>
+      <c r="E18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="37" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="18"/>
+      <c r="E20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="18"/>
+      <c r="E21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="18"/>
+      <c r="E22" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="18"/>
+      <c r="E23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="18"/>
+      <c r="E24" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="18"/>
+      <c r="E25" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="19"/>
+      <c r="E26" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="33"/>
+      <c r="E27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="5" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="35"/>
+      <c r="C28" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="C34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="38"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="38"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="38"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="38"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="38"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="38"/>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="34"/>
+      <c r="B45" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="47"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="47"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="47"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
+      <c r="B50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="47"/>
+      <c r="B51" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="47"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="48"/>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="12" t="s">
+    </row>
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="34"/>
+      <c r="B56" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="33"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="46" t="s">
+      <c r="D56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="23"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="33"/>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="23"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="23"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="23"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="5" t="s">
+      <c r="D57" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="23"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="24"/>
-    </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="33"/>
-    </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="24"/>
-    </row>
-    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="55" t="s">
-        <v>101</v>
+      <c r="E57" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="A33:A45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F35:F43"/>
-    <mergeCell ref="C35:C43"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A32"/>
+  <mergeCells count="25">
     <mergeCell ref="A10:A18"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="F14:F18"/>
@@ -1929,6 +1750,22 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F35:F43"/>
+    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A46:A53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
